--- a/biology/Médecine/Escape_Fire__The_Fight_to_Rescue_American_Healthcare/Escape_Fire__The_Fight_to_Rescue_American_Healthcare.xlsx
+++ b/biology/Médecine/Escape_Fire__The_Fight_to_Rescue_American_Healthcare/Escape_Fire__The_Fight_to_Rescue_American_Healthcare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Escape Fire: The Fight to Rescue American Healthcare est un film documentaire américain écrit et réalisé par Susan Froemke (en) et Matthew Heineman et sorti en 2012.
 Il a été présenté au Festival de Sundance 2012 en première mondiale.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film traite du système de secours actuel aux États-Unis et ses effets sur les personnes qu'il sert.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Escape Fire: The Fight to Rescue American Healthcare
 Réalisation : Susan Froemke (en) et Matthew Heineman
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clive Alonzo : lui-même
@@ -647,9 +665,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil positif. Il obtient une note de 81 % sur l’agrégateur de critiques Rotten Tomatoes, basé sur 23 critiques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil positif. Il obtient une note de 81 % sur l’agrégateur de critiques Rotten Tomatoes, basé sur 23 critiques.
 </t>
         </is>
       </c>
